--- a/Brighway/Results/Lobster - APOS_recipe_unq.xlsx
+++ b/Brighway/Results/Lobster - APOS_recipe_unq.xlsx
@@ -1157,67 +1157,67 @@
     </row>
     <row r="12" spans="1:21">
       <c r="A12">
-        <v>0.0007080231224671262</v>
+        <v>0.0007291589618496478</v>
       </c>
       <c r="B12">
-        <v>0.5803231639649226</v>
+        <v>0.4021355177913509</v>
       </c>
       <c r="C12">
-        <v>0.03230730195527312</v>
+        <v>0.04733901032464305</v>
       </c>
       <c r="D12">
-        <v>0.04265416240582324</v>
+        <v>0.0596440140289755</v>
       </c>
       <c r="E12">
-        <v>0.5739586450873381</v>
+        <v>2.397229460136879</v>
       </c>
       <c r="F12">
-        <v>0.1168546687061543</v>
+        <v>0.05664836073255422</v>
       </c>
       <c r="G12">
-        <v>0.0006891508477608853</v>
+        <v>0.0001929571944926478</v>
       </c>
       <c r="H12">
-        <v>6.294820159876717E-05</v>
+        <v>1.933851091111311E-05</v>
       </c>
       <c r="I12">
-        <v>0.04171249741283028</v>
+        <v>0.02035639153190085</v>
       </c>
       <c r="J12">
-        <v>0.8946551144264365</v>
+        <v>0.6175254847967954</v>
       </c>
       <c r="K12">
-        <v>0.1119787732427364</v>
+        <v>0.06161854524617778</v>
       </c>
       <c r="L12">
-        <v>0.01708731518972696</v>
+        <v>0.04507704151081417</v>
       </c>
       <c r="M12">
-        <v>0.001913526762202326</v>
+        <v>0.002520186798035042</v>
       </c>
       <c r="N12">
-        <v>3.425130445392184E-07</v>
+        <v>2.380915911058635E-07</v>
       </c>
       <c r="O12">
-        <v>0.0002461574530044707</v>
+        <v>0.0002512291089345376</v>
       </c>
       <c r="P12">
-        <v>0.0005349644749719145</v>
+        <v>0.0004644310378056788</v>
       </c>
       <c r="Q12">
-        <v>0.0005502510137181141</v>
+        <v>0.0004758870383549195</v>
       </c>
       <c r="R12">
-        <v>0.003027599316102418</v>
+        <v>0.003918048416985813</v>
       </c>
       <c r="S12">
-        <v>2.492803110556199E-09</v>
+        <v>1.937452421499646E-09</v>
       </c>
       <c r="T12">
-        <v>1.044026572023967E-06</v>
+        <v>7.491671420801398E-07</v>
       </c>
       <c r="U12">
-        <v>0.01540386208178333</v>
+        <v>0.01119654045124362</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -1482,67 +1482,67 @@
     </row>
     <row r="17" spans="1:21">
       <c r="A17">
-        <v>-0.0002566968101779606</v>
+        <v>-0.0002575230613883605</v>
       </c>
       <c r="B17">
-        <v>-2.390725101155563</v>
+        <v>-2.392110917055927</v>
       </c>
       <c r="C17">
-        <v>-0.1785147640379714</v>
+        <v>-0.1785199050688869</v>
       </c>
       <c r="D17">
-        <v>-0.2449341789464607</v>
+        <v>-0.2449411610892739</v>
       </c>
       <c r="E17">
-        <v>-4.859492402057269</v>
+        <v>-4.859883177146885</v>
       </c>
       <c r="F17">
-        <v>-0.008901589099955681</v>
+        <v>-0.009332608029179124</v>
       </c>
       <c r="G17">
-        <v>-3.905561397005102E-05</v>
+        <v>-3.907777481641205E-05</v>
       </c>
       <c r="H17">
-        <v>-1.082712001892829E-05</v>
+        <v>-1.082974743336056E-05</v>
       </c>
       <c r="I17">
-        <v>-0.02981853380009157</v>
+        <v>-0.02984167775682324</v>
       </c>
       <c r="J17">
-        <v>-2.687257357198462</v>
+        <v>-2.687339103891876</v>
       </c>
       <c r="K17">
-        <v>-0.002306069555736679</v>
+        <v>-0.002309375572268529</v>
       </c>
       <c r="L17">
-        <v>-0.0009292999288939331</v>
+        <v>-0.0009311270516161476</v>
       </c>
       <c r="M17">
-        <v>-0.002509127945295027</v>
+        <v>-0.002514025514280159</v>
       </c>
       <c r="N17">
-        <v>-3.345747513857375E-07</v>
+        <v>-3.356018777992086E-07</v>
       </c>
       <c r="O17">
-        <v>-0.0001007160635835143</v>
+        <v>-0.0001010167930532787</v>
       </c>
       <c r="P17">
-        <v>-0.0004806727673920576</v>
+        <v>-0.0004825901903954001</v>
       </c>
       <c r="Q17">
-        <v>-0.0004855865112266517</v>
+        <v>-0.0004876608798080443</v>
       </c>
       <c r="R17">
-        <v>-0.001776980452870813</v>
+        <v>-0.001777690162669269</v>
       </c>
       <c r="S17">
-        <v>-7.0506351714035E-09</v>
+        <v>-7.054999376948888E-09</v>
       </c>
       <c r="T17">
-        <v>-2.998516138597697E-06</v>
+        <v>-3.000090614529515E-06</v>
       </c>
       <c r="U17">
-        <v>-0.003114575240264097</v>
+        <v>-0.003269166696487442</v>
       </c>
     </row>
     <row r="18" spans="1:21">
@@ -1612,67 +1612,67 @@
     </row>
     <row r="19" spans="1:21">
       <c r="A19">
-        <v>-0.0002581142753332687</v>
+        <v>-0.0002589364419461887</v>
       </c>
       <c r="B19">
-        <v>-2.483094483588293</v>
+        <v>-2.484473449004196</v>
       </c>
       <c r="C19">
-        <v>-0.170965756967049</v>
+        <v>-0.1709708725638958</v>
       </c>
       <c r="D19">
-        <v>-0.2362242987692221</v>
+        <v>-0.2362312463710488</v>
       </c>
       <c r="E19">
-        <v>-5.309730643678604</v>
+        <v>-5.310119485295193</v>
       </c>
       <c r="F19">
-        <v>-0.008905616576536414</v>
+        <v>-0.009334504861564417</v>
       </c>
       <c r="G19">
-        <v>-3.772972391679368E-05</v>
+        <v>-3.775177518676853E-05</v>
       </c>
       <c r="H19">
-        <v>-1.046465867519956E-05</v>
+        <v>-1.046727310133092E-05</v>
       </c>
       <c r="I19">
-        <v>-0.02907694819826917</v>
+        <v>-0.02909997773260669</v>
       </c>
       <c r="J19">
-        <v>-2.484938551006694</v>
+        <v>-2.485019893311708</v>
       </c>
       <c r="K19">
-        <v>-0.002281486410715438</v>
+        <v>-0.002284776083737794</v>
       </c>
       <c r="L19">
-        <v>-0.0008960940305341701</v>
+        <v>-0.0008979124821742314</v>
       </c>
       <c r="M19">
-        <v>-0.002492915883256693</v>
+        <v>-0.002497789240064456</v>
       </c>
       <c r="N19">
-        <v>-3.182091099862709E-07</v>
+        <v>-3.192311590268863E-07</v>
       </c>
       <c r="O19">
-        <v>-0.0001007952342404204</v>
+        <v>-0.0001010944770410314</v>
       </c>
       <c r="P19">
-        <v>-0.0004885781762344613</v>
+        <v>-0.0004904861208598287</v>
       </c>
       <c r="Q19">
-        <v>-0.0004934451520598184</v>
+        <v>-0.0004955092664407462</v>
       </c>
       <c r="R19">
-        <v>-0.001768538439852955</v>
+        <v>-0.001769244641180659</v>
       </c>
       <c r="S19">
-        <v>-7.308424151392963E-09</v>
+        <v>-7.31276678652597E-09</v>
       </c>
       <c r="T19">
-        <v>-3.035639952234593E-06</v>
+        <v>-3.037206644915667E-06</v>
       </c>
       <c r="U19">
-        <v>-0.003111098034135128</v>
+        <v>-0.003264925303106418</v>
       </c>
     </row>
     <row r="20" spans="1:21">
@@ -1742,67 +1742,67 @@
     </row>
     <row r="21" spans="1:21">
       <c r="A21">
-        <v>-0.0005079424661882617</v>
+        <v>-0.000507959037034307</v>
       </c>
       <c r="B21">
-        <v>-2.732490401464882</v>
+        <v>-2.732518193141729</v>
       </c>
       <c r="C21">
-        <v>-0.1274644014027478</v>
+        <v>-0.1274645045598059</v>
       </c>
       <c r="D21">
-        <v>-0.1835729507990416</v>
+        <v>-0.1835730908951942</v>
       </c>
       <c r="E21">
-        <v>-7.011510284933869</v>
+        <v>-7.011518126239848</v>
       </c>
       <c r="F21">
-        <v>-0.0255845748627578</v>
+        <v>-0.02559321864935585</v>
       </c>
       <c r="G21">
-        <v>-0.0001769312295430423</v>
+        <v>-0.0001769316740680828</v>
       </c>
       <c r="H21">
-        <v>-1.44962633004217E-05</v>
+        <v>-1.449631599886038E-05</v>
       </c>
       <c r="I21">
-        <v>-0.07664750829657031</v>
+        <v>-0.0766479725378099</v>
       </c>
       <c r="J21">
-        <v>-1.659519047669805</v>
+        <v>-1.659520687918925</v>
       </c>
       <c r="K21">
-        <v>-0.008901420494378044</v>
+        <v>-0.008901486798228298</v>
       </c>
       <c r="L21">
-        <v>-0.002617859494358998</v>
+        <v>-0.002617896115786188</v>
       </c>
       <c r="M21">
-        <v>-0.009324347975327605</v>
+        <v>-0.009324446206381135</v>
       </c>
       <c r="N21">
-        <v>-3.146268901680945E-07</v>
+        <v>-3.146474884886601E-07</v>
       </c>
       <c r="O21">
-        <v>-0.0002367024946088474</v>
+        <v>-0.0002367085258821796</v>
       </c>
       <c r="P21">
-        <v>-0.0006805697822449447</v>
+        <v>-0.0006806082349397713</v>
       </c>
       <c r="Q21">
-        <v>-0.0006892300887351953</v>
+        <v>-0.0006892716888428457</v>
       </c>
       <c r="R21">
-        <v>-0.003237525733473525</v>
+        <v>-0.003237539967383176</v>
       </c>
       <c r="S21">
-        <v>-8.177349752761432E-09</v>
+        <v>-8.17743727435969E-09</v>
       </c>
       <c r="T21">
-        <v>-3.32557961412626E-06</v>
+        <v>-3.325611190015169E-06</v>
       </c>
       <c r="U21">
-        <v>-0.008535395763631392</v>
+        <v>-0.00853849598529963</v>
       </c>
     </row>
     <row r="22" spans="1:21">

--- a/Brighway/Results/Lobster - APOS_recipe_unq.xlsx
+++ b/Brighway/Results/Lobster - APOS_recipe_unq.xlsx
@@ -16,67 +16,67 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H)', 'acidification: terrestrial', 'terrestrial acidification potential (TAP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H)', 'climate change', 'global warming potential (GWP1000)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H)', 'ecotoxicity: freshwater', 'freshwater ecotoxicity potential (FETP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H)', 'ecotoxicity: marine', 'marine ecotoxicity potential (METP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H)', 'ecotoxicity: terrestrial', 'terrestrial ecotoxicity potential (TETP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H)', 'energy resources: non-renewable, fossil', 'fossil fuel potential (FFP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H)', 'eutrophication: freshwater', 'freshwater eutrophication potential (FEP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H)', 'eutrophication: marine', 'marine eutrophication potential (MEP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H)', 'human toxicity: carcinogenic', 'human toxicity potential (HTPc)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H)', 'human toxicity: non-carcinogenic', 'human toxicity potential (HTPnc)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H)', 'ionising radiation', 'ionising radiation potential (IRP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H)', 'land use', 'agricultural land occupation (LOP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H)', 'material resources: metals/minerals', 'surplus ore potential (SOP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H)', 'ozone depletion', 'ozone depletion potential (ODPinfinite)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H)', 'particulate matter formation', 'particulate matter formation potential (PMFP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H)', 'photochemical oxidant formation: human health', 'photochemical oxidant formation potential: humans (HOFP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H)', 'photochemical oxidant formation: terrestrial ecosystems', 'photochemical oxidant formation potential: ecosystems (EOFP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H)', 'water use', 'water consumption potential (WCP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, endpoint (H)', 'total: ecosystem quality', 'ecosystem quality')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, endpoint (H)', 'total: human health', 'human health')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, endpoint (H)', 'total: natural resources', 'natural resources')</t>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'acidification: terrestrial', 'terrestrial acidification potential (TAP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'climate change', 'global warming potential (GWP1000)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'ecotoxicity: freshwater', 'freshwater ecotoxicity potential (FETP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'ecotoxicity: marine', 'marine ecotoxicity potential (METP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'ecotoxicity: terrestrial', 'terrestrial ecotoxicity potential (TETP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'energy resources: non-renewable, fossil', 'fossil fuel potential (FFP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'eutrophication: freshwater', 'freshwater eutrophication potential (FEP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'eutrophication: marine', 'marine eutrophication potential (MEP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'human toxicity: carcinogenic', 'human toxicity potential (HTPc)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'human toxicity: non-carcinogenic', 'human toxicity potential (HTPnc)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'ionising radiation', 'ionising radiation potential (IRP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'land use', 'agricultural land occupation (LOP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'material resources: metals/minerals', 'surplus ore potential (SOP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'ozone depletion', 'ozone depletion potential (ODPinfinite)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'particulate matter formation', 'particulate matter formation potential (PMFP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'photochemical oxidant formation: human health', 'photochemical oxidant formation potential: humans (HOFP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'photochemical oxidant formation: terrestrial ecosystems', 'photochemical oxidant formation potential: ecosystems (EOFP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'water use', 'water consumption potential (WCP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, endpoint (H) Runes edition', 'total: ecosystem quality', 'ecosystem quality')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, endpoint (H) Runes edition', 'total: human health', 'human health')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, endpoint (H) Runes edition', 'total: natural resources', 'natural resources')</t>
   </si>
 </sst>
 </file>
@@ -434,7 +434,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U24"/>
+  <dimension ref="A1:U19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -507,1497 +507,1172 @@
     </row>
     <row r="2" spans="1:21">
       <c r="A2">
-        <v>0.006760483726634972</v>
+        <v>0.006760483508620591</v>
       </c>
       <c r="B2">
-        <v>4.708059299677684</v>
+        <v>2.536383602194142</v>
       </c>
       <c r="C2">
-        <v>0.2167666964441933</v>
+        <v>0.2167666925767128</v>
       </c>
       <c r="D2">
-        <v>0.2791925094118868</v>
+        <v>0.2791925041901055</v>
       </c>
       <c r="E2">
-        <v>9.738107984011588</v>
+        <v>9.738107541689343</v>
       </c>
       <c r="F2">
-        <v>0.6507585583203035</v>
+        <v>0.6507585442693677</v>
       </c>
       <c r="G2">
-        <v>0.002367061971702823</v>
+        <v>0.002367061954840243</v>
       </c>
       <c r="H2">
-        <v>0.001538405527645721</v>
+        <v>0.001538405525736988</v>
       </c>
       <c r="I2">
-        <v>0.2222890937017619</v>
+        <v>0.2222890731929051</v>
       </c>
       <c r="J2">
-        <v>4.980585432872061</v>
+        <v>4.980585362310288</v>
       </c>
       <c r="K2">
-        <v>0.713667607808984</v>
+        <v>0.7136676061059858</v>
       </c>
       <c r="L2">
-        <v>0.5094936726168131</v>
+        <v>0.5094936660643796</v>
       </c>
       <c r="M2">
-        <v>0.02890428663914453</v>
+        <v>0.02890428391124743</v>
       </c>
       <c r="N2">
-        <v>3.079201191247758E-06</v>
+        <v>3.079201169156959E-06</v>
       </c>
       <c r="O2">
-        <v>0.002343175842050235</v>
+        <v>0.002343175713797132</v>
       </c>
       <c r="P2">
-        <v>0.005117382774237379</v>
+        <v>0.005117382528595607</v>
       </c>
       <c r="Q2">
-        <v>0.005242998569512839</v>
+        <v>0.005242998316516981</v>
       </c>
       <c r="R2">
-        <v>0.04683991025848379</v>
+        <v>0.04683990998178512</v>
       </c>
       <c r="S2">
-        <v>2.169009645880697E-08</v>
+        <v>1.5609238441934E-08</v>
       </c>
       <c r="T2">
-        <v>7.831482473571359E-06</v>
+        <v>5.816088664887578E-06</v>
       </c>
       <c r="U2">
-        <v>0.1297314559310008</v>
+        <v>0.1297314513693331</v>
       </c>
     </row>
     <row r="3" spans="1:21">
       <c r="A3">
-        <v>6.083207052314138E-05</v>
+        <v>6.083206943659745E-05</v>
       </c>
       <c r="B3">
-        <v>0.004532851705376202</v>
+        <v>0.004011484584919769</v>
       </c>
       <c r="C3">
-        <v>0.004762136382314315</v>
+        <v>0.00476213636653862</v>
       </c>
       <c r="D3">
-        <v>0.006091401731153695</v>
+        <v>0.006091401709511485</v>
       </c>
       <c r="E3">
-        <v>0.411997550290182</v>
+        <v>0.4119975482713783</v>
       </c>
       <c r="F3">
-        <v>0.001140849934304267</v>
+        <v>0.001140849861721553</v>
       </c>
       <c r="G3">
-        <v>8.239206501878196E-06</v>
+        <v>8.239206417938113E-06</v>
       </c>
       <c r="H3">
-        <v>3.659876294648502E-07</v>
+        <v>3.659876195872929E-07</v>
       </c>
       <c r="I3">
-        <v>0.0007600315844801862</v>
+        <v>0.0007600314780167607</v>
       </c>
       <c r="J3">
-        <v>0.07069584110948683</v>
+        <v>0.07069584080056991</v>
       </c>
       <c r="K3">
-        <v>0.001718645325951827</v>
+        <v>0.001718645316457017</v>
       </c>
       <c r="L3">
-        <v>0.0002490871664461206</v>
+        <v>0.0002490871618644453</v>
       </c>
       <c r="M3">
-        <v>0.0002379731434731634</v>
+        <v>0.0002379731312585102</v>
       </c>
       <c r="N3">
-        <v>2.598949792746332E-09</v>
+        <v>2.598949678918769E-09</v>
       </c>
       <c r="O3">
-        <v>2.050135129881131E-05</v>
+        <v>2.050135064573311E-05</v>
       </c>
       <c r="P3">
-        <v>1.404657497752458E-05</v>
+        <v>1.404657372263488E-05</v>
       </c>
       <c r="Q3">
-        <v>1.446060456717309E-05</v>
+        <v>1.446060327293298E-05</v>
       </c>
       <c r="R3">
-        <v>5.699170754192965E-05</v>
+        <v>5.699170611315049E-05</v>
       </c>
       <c r="S3">
-        <v>4.382512850062484E-11</v>
+        <v>4.236526019997829E-11</v>
       </c>
       <c r="T3">
-        <v>3.58767096172388E-08</v>
+        <v>3.539283200179481E-08</v>
       </c>
       <c r="U3">
-        <v>0.0003206258918285451</v>
+        <v>0.0003206258686332406</v>
       </c>
     </row>
     <row r="4" spans="1:21">
       <c r="A4">
-        <v>0.009062375883798504</v>
+        <v>0.00906237759785861</v>
       </c>
       <c r="B4">
-        <v>3.294963699469837</v>
+        <v>3.205257614606598</v>
       </c>
       <c r="C4">
-        <v>0.08392866169061895</v>
+        <v>0.08392867493719003</v>
       </c>
       <c r="D4">
-        <v>0.1123832093345814</v>
+        <v>0.1123832287467919</v>
       </c>
       <c r="E4">
-        <v>7.421891751015439</v>
+        <v>7.421894078310877</v>
       </c>
       <c r="F4">
-        <v>1.898586618514101</v>
+        <v>1.898586754152352</v>
       </c>
       <c r="G4">
-        <v>0.000800706648250955</v>
+        <v>0.0008007067748468863</v>
       </c>
       <c r="H4">
-        <v>0.0001144681640914074</v>
+        <v>0.0001144681810581174</v>
       </c>
       <c r="I4">
-        <v>0.1324825962575443</v>
+        <v>0.132482786601725</v>
       </c>
       <c r="J4">
-        <v>1.984332831147738</v>
+        <v>1.984333135679986</v>
       </c>
       <c r="K4">
-        <v>0.202467227219581</v>
+        <v>0.2024672430726573</v>
       </c>
       <c r="L4">
-        <v>0.09313486865921507</v>
+        <v>0.09313486780582667</v>
       </c>
       <c r="M4">
-        <v>0.02102107375555628</v>
+        <v>0.02102109326404834</v>
       </c>
       <c r="N4">
-        <v>5.930315403478176E-07</v>
+        <v>5.930317398826549E-07</v>
       </c>
       <c r="O4">
-        <v>0.004042495313982818</v>
+        <v>0.004042496412159555</v>
       </c>
       <c r="P4">
-        <v>0.007820236417751012</v>
+        <v>0.007820238635958768</v>
       </c>
       <c r="Q4">
-        <v>0.008528615276419427</v>
+        <v>0.008528617581170439</v>
       </c>
       <c r="R4">
-        <v>0.04824889000972393</v>
+        <v>0.04824889241833674</v>
       </c>
       <c r="S4">
-        <v>1.376756998767028E-08</v>
+        <v>1.351638687221912E-08</v>
       </c>
       <c r="T4">
-        <v>6.606245354349753E-06</v>
+        <v>6.522989061114398E-06</v>
       </c>
       <c r="U4">
-        <v>0.7124084860980254</v>
+        <v>0.7124085302218537</v>
       </c>
     </row>
     <row r="5" spans="1:21">
       <c r="A5">
-        <v>5.260823403167369E-05</v>
+        <v>5.260823544125574E-05</v>
       </c>
       <c r="B5">
-        <v>0.001515967266568427</v>
+        <v>0.00147322612969706</v>
       </c>
       <c r="C5">
-        <v>0.001094346589396551</v>
+        <v>0.001094346605919413</v>
       </c>
       <c r="D5">
-        <v>0.001668084272049219</v>
+        <v>0.001668084295236388</v>
       </c>
       <c r="E5">
-        <v>0.1087918089915119</v>
+        <v>0.1087918114013766</v>
       </c>
       <c r="F5">
-        <v>0.0003921538726738602</v>
+        <v>0.0003921539704141391</v>
       </c>
       <c r="G5">
-        <v>1.743599771224872E-06</v>
+        <v>1.743599879393724E-06</v>
       </c>
       <c r="H5">
-        <v>1.576292573449543E-07</v>
+        <v>1.576292704981725E-07</v>
       </c>
       <c r="I5">
-        <v>0.0006345842404256435</v>
+        <v>0.0006345843890574178</v>
       </c>
       <c r="J5">
-        <v>0.02032961031873017</v>
+        <v>0.02032961066956665</v>
       </c>
       <c r="K5">
-        <v>0.0001377478399011191</v>
+        <v>0.0001377478526838074</v>
       </c>
       <c r="L5">
-        <v>6.454387985221167E-05</v>
+        <v>6.454388589776473E-05</v>
       </c>
       <c r="M5">
-        <v>0.0002691429315149763</v>
+        <v>0.0002691429474227231</v>
       </c>
       <c r="N5">
-        <v>2.932699681890049E-09</v>
+        <v>2.932699837061497E-09</v>
       </c>
       <c r="O5">
-        <v>1.702644774363349E-05</v>
+        <v>1.702644862498284E-05</v>
       </c>
       <c r="P5">
-        <v>7.066756009052379E-06</v>
+        <v>7.066757719980194E-06</v>
       </c>
       <c r="Q5">
-        <v>7.275640228222473E-06</v>
+        <v>7.275641989959379E-06</v>
       </c>
       <c r="R5">
-        <v>6.301241540122756E-05</v>
+        <v>6.301241729402576E-05</v>
       </c>
       <c r="S5">
-        <v>2.025299959279921E-11</v>
+        <v>2.013332183772122E-11</v>
       </c>
       <c r="T5">
-        <v>1.898883331432844E-08</v>
+        <v>1.894916463147862E-08</v>
       </c>
       <c r="U5">
-        <v>0.0001718795484363119</v>
+        <v>0.0001718795793229767</v>
       </c>
     </row>
     <row r="6" spans="1:21">
       <c r="A6">
-        <v>0.003706692163472518</v>
+        <v>0.0186684636219803</v>
       </c>
       <c r="B6">
-        <v>1.094888672824893</v>
+        <v>2.067205925393974</v>
       </c>
       <c r="C6">
-        <v>0.2123704339336062</v>
+        <v>1.373662130499388</v>
       </c>
       <c r="D6">
-        <v>0.2798654130670928</v>
+        <v>1.764906365122155</v>
       </c>
       <c r="E6">
-        <v>2.441453384602094</v>
+        <v>104.0382878508444</v>
       </c>
       <c r="F6">
-        <v>0.2631255212415191</v>
+        <v>0.529893831082886</v>
       </c>
       <c r="G6">
-        <v>0.000762038885620056</v>
+        <v>0.002482804928480864</v>
       </c>
       <c r="H6">
-        <v>4.665799443030853E-05</v>
+        <v>0.000102462734541451</v>
       </c>
       <c r="I6">
-        <v>0.0539988279977127</v>
+        <v>0.2207242682693008</v>
       </c>
       <c r="J6">
-        <v>3.602590931560361</v>
+        <v>20.67260122478733</v>
       </c>
       <c r="K6">
-        <v>0.1216259130743292</v>
+        <v>0.2299697557631995</v>
       </c>
       <c r="L6">
-        <v>0.02389611485733169</v>
+        <v>0.07342267753890994</v>
       </c>
       <c r="M6">
-        <v>0.0130383459541633</v>
+        <v>0.06992676030352472</v>
       </c>
       <c r="N6">
-        <v>4.100040847200682E-07</v>
+        <v>9.308103962707124E-07</v>
       </c>
       <c r="O6">
-        <v>0.00218039025522907</v>
+        <v>0.00773478925961874</v>
       </c>
       <c r="P6">
-        <v>0.002668901662430136</v>
+        <v>0.006500645825079011</v>
       </c>
       <c r="Q6">
-        <v>0.002726784485332678</v>
+        <v>0.006649942238853029</v>
       </c>
       <c r="R6">
-        <v>0.007912144741648499</v>
+        <v>0.01797208449840475</v>
       </c>
       <c r="S6">
-        <v>5.130679510050549E-09</v>
+        <v>1.524374501667983E-08</v>
       </c>
       <c r="T6">
-        <v>3.408671593619507E-06</v>
+        <v>1.227172175540617E-05</v>
       </c>
       <c r="U6">
-        <v>0.05398129540756439</v>
+        <v>0.1259442950309327</v>
       </c>
     </row>
     <row r="7" spans="1:21">
       <c r="A7">
-        <v>0.001150940617524454</v>
+        <v>0.002301881320604253</v>
       </c>
       <c r="B7">
-        <v>0.08486823576791667</v>
+        <v>0.165247419908084</v>
       </c>
       <c r="C7">
-        <v>0.008420720691781014</v>
+        <v>0.01684144230197483</v>
       </c>
       <c r="D7">
-        <v>0.01157040250421168</v>
+        <v>0.02314080630834034</v>
       </c>
       <c r="E7">
-        <v>2.169331629296737</v>
+        <v>4.338663399795414</v>
       </c>
       <c r="F7">
-        <v>0.03418028136059202</v>
+        <v>0.06836056880631601</v>
       </c>
       <c r="G7">
-        <v>2.464150167472859E-05</v>
+        <v>4.928300999812763E-05</v>
       </c>
       <c r="H7">
-        <v>4.710780441840059E-06</v>
+        <v>9.421561707099206E-06</v>
       </c>
       <c r="I7">
-        <v>0.01403873918060312</v>
+        <v>0.02807748762575628</v>
       </c>
       <c r="J7">
-        <v>0.1589945659528299</v>
+        <v>0.317989151670058</v>
       </c>
       <c r="K7">
-        <v>0.004762873114898021</v>
+        <v>0.009525747063244315</v>
       </c>
       <c r="L7">
-        <v>0.001512241583328735</v>
+        <v>0.00302448402711349</v>
       </c>
       <c r="M7">
-        <v>0.00447089395051655</v>
+        <v>0.008941788877054671</v>
       </c>
       <c r="N7">
-        <v>4.132861682290506E-08</v>
+        <v>8.265724331569844E-08</v>
       </c>
       <c r="O7">
-        <v>0.0003870194223482555</v>
+        <v>0.000774038899226479</v>
       </c>
       <c r="P7">
-        <v>0.0002032207689852117</v>
+        <v>0.0004064416435662686</v>
       </c>
       <c r="Q7">
-        <v>0.0002176784607680324</v>
+        <v>0.0004353570302698395</v>
       </c>
       <c r="R7">
-        <v>0.002160710513341234</v>
+        <v>0.00432142114341486</v>
       </c>
       <c r="S7">
-        <v>5.715392431477886E-10</v>
+        <v>1.130508845389557E-09</v>
       </c>
       <c r="T7">
-        <v>4.096597401044231E-07</v>
+        <v>8.151528909747846E-07</v>
       </c>
       <c r="U7">
-        <v>0.0131213258885264</v>
+        <v>0.02624265369001074</v>
       </c>
     </row>
     <row r="8" spans="1:21">
       <c r="A8">
-        <v>0.01866845726308992</v>
+        <v>0.007223579164187368</v>
       </c>
       <c r="B8">
-        <v>2.141245235342658</v>
+        <v>2.4280771082887</v>
       </c>
       <c r="C8">
-        <v>1.373662056739142</v>
+        <v>0.0701681891572194</v>
       </c>
       <c r="D8">
-        <v>1.764906261533137</v>
+        <v>0.09344677526844049</v>
       </c>
       <c r="E8">
-        <v>104.0382770643804</v>
+        <v>6.606762576907183</v>
       </c>
       <c r="F8">
-        <v>0.5298933884172465</v>
+        <v>1.333467264952219</v>
       </c>
       <c r="G8">
-        <v>0.00248280444050708</v>
+        <v>0.0006782907949735169</v>
       </c>
       <c r="H8">
-        <v>0.0001024626752407366</v>
+        <v>0.0001927160988678864</v>
       </c>
       <c r="I8">
-        <v>0.2207235957621144</v>
+        <v>0.1056193114426603</v>
       </c>
       <c r="J8">
-        <v>20.6725996609325</v>
+        <v>1.852970135010513</v>
       </c>
       <c r="K8">
-        <v>0.2299696978730615</v>
+        <v>0.1758860259440979</v>
       </c>
       <c r="L8">
-        <v>0.07342262668526897</v>
+        <v>0.4951722183783533</v>
       </c>
       <c r="M8">
-        <v>0.06992668827404933</v>
+        <v>0.1917813456627755</v>
       </c>
       <c r="N8">
-        <v>9.308096938864206E-07</v>
+        <v>7.518132950199632E-07</v>
       </c>
       <c r="O8">
-        <v>0.007734785274395214</v>
+        <v>0.003281930694959118</v>
       </c>
       <c r="P8">
-        <v>0.006500638077575159</v>
+        <v>0.006287104452240006</v>
       </c>
       <c r="Q8">
-        <v>0.00664993425956566</v>
+        <v>0.006798707820376294</v>
       </c>
       <c r="R8">
-        <v>0.01797207593782729</v>
+        <v>0.04489655872482466</v>
       </c>
       <c r="S8">
-        <v>1.545105739985617E-08</v>
+        <v>1.418890515148898E-08</v>
       </c>
       <c r="T8">
-        <v>1.234043540896061E-05</v>
+        <v>5.195980973977918E-06</v>
       </c>
       <c r="U8">
-        <v>0.1259441550732165</v>
+        <v>0.5372964748536095</v>
       </c>
     </row>
     <row r="9" spans="1:21">
       <c r="A9">
-        <v>0.002301881235048907</v>
+        <v>0.003591701181282239</v>
       </c>
       <c r="B9">
-        <v>0.1697364715358333</v>
+        <v>1.409445268845963</v>
       </c>
       <c r="C9">
-        <v>0.01684144138356203</v>
+        <v>0.1197830031028043</v>
       </c>
       <c r="D9">
-        <v>0.02314080500842337</v>
+        <v>0.1539687893659965</v>
       </c>
       <c r="E9">
-        <v>4.338663258593473</v>
+        <v>5.225471610335763</v>
       </c>
       <c r="F9">
-        <v>0.06836056272118404</v>
+        <v>0.3663854525018537</v>
       </c>
       <c r="G9">
-        <v>4.928300334945717E-05</v>
+        <v>0.001181864027295051</v>
       </c>
       <c r="H9">
-        <v>9.421560883680118E-06</v>
+        <v>0.0002982222941335912</v>
       </c>
       <c r="I9">
-        <v>0.02807747836120623</v>
+        <v>0.1190675336848653</v>
       </c>
       <c r="J9">
-        <v>0.3179891319056599</v>
+        <v>2.500645832472737</v>
       </c>
       <c r="K9">
-        <v>0.009525746229796041</v>
+        <v>0.4033543557384628</v>
       </c>
       <c r="L9">
-        <v>0.00302448316665747</v>
+        <v>0.2921150554986138</v>
       </c>
       <c r="M9">
-        <v>0.0089417879010331</v>
+        <v>0.01245215651985705</v>
       </c>
       <c r="N9">
-        <v>8.265723364581013E-08</v>
+        <v>1.585164364850574E-06</v>
       </c>
       <c r="O9">
-        <v>0.000774038844696511</v>
+        <v>0.001234502112049553</v>
       </c>
       <c r="P9">
-        <v>0.0004064415379704235</v>
+        <v>0.002812775233291952</v>
       </c>
       <c r="Q9">
-        <v>0.0004353569215360647</v>
+        <v>0.002881031559853254</v>
       </c>
       <c r="R9">
-        <v>0.004321421026682468</v>
+        <v>0.02511289808316404</v>
       </c>
       <c r="S9">
-        <v>1.143078486295577E-09</v>
+        <v>8.621354376973636E-09</v>
       </c>
       <c r="T9">
-        <v>8.193194802088462E-07</v>
+        <v>3.111711829800412E-06</v>
       </c>
       <c r="U9">
-        <v>0.0262426517770528</v>
+        <v>0.07202564078883453</v>
       </c>
     </row>
     <row r="10" spans="1:21">
       <c r="A10">
-        <v>0.007223573428276059</v>
+        <v>0.0007291589616744634</v>
       </c>
       <c r="B10">
-        <v>2.997924730398356</v>
+        <v>0.220486877269144</v>
       </c>
       <c r="C10">
-        <v>0.07016811242194018</v>
+        <v>0.04733901023532649</v>
       </c>
       <c r="D10">
-        <v>0.0934466691362652</v>
+        <v>0.05964401391747467</v>
       </c>
       <c r="E10">
-        <v>6.606752244061338</v>
+        <v>2.397229455060476</v>
       </c>
       <c r="F10">
-        <v>1.33346686184668</v>
+        <v>0.05664836079634064</v>
       </c>
       <c r="G10">
-        <v>0.0006782903523479629</v>
+        <v>0.0001929571944741257</v>
       </c>
       <c r="H10">
-        <v>0.0001927160457871788</v>
+        <v>1.933851091867314E-05</v>
       </c>
       <c r="I10">
-        <v>0.1056187228741084</v>
+        <v>0.02035639168804654</v>
       </c>
       <c r="J10">
-        <v>1.85296860627388</v>
+        <v>0.6175254836950608</v>
       </c>
       <c r="K10">
-        <v>0.1758859746825317</v>
+        <v>0.0616185452632978</v>
       </c>
       <c r="L10">
-        <v>0.4951722054119256</v>
+        <v>0.04507704264986837</v>
       </c>
       <c r="M10">
-        <v>0.1917812815923509</v>
+        <v>0.002520186771648724</v>
       </c>
       <c r="N10">
-        <v>7.5181268025541E-07</v>
+        <v>2.380915912118236E-07</v>
       </c>
       <c r="O10">
-        <v>0.003281927168906545</v>
+        <v>0.0002512291093765949</v>
       </c>
       <c r="P10">
-        <v>0.006287097619505131</v>
+        <v>0.0004644310388547564</v>
       </c>
       <c r="Q10">
-        <v>0.00679870075052843</v>
+        <v>0.0004758870394636983</v>
       </c>
       <c r="R10">
-        <v>0.04489655106617768</v>
+        <v>0.003918048417844105</v>
       </c>
       <c r="S10">
-        <v>1.578451930504288E-08</v>
+        <v>1.428822361079322E-09</v>
       </c>
       <c r="T10">
-        <v>5.724817734383155E-06</v>
+        <v>5.805929757498248E-07</v>
       </c>
       <c r="U10">
-        <v>0.5372963454640627</v>
+        <v>0.01119654046325344</v>
       </c>
     </row>
     <row r="11" spans="1:21">
       <c r="A11">
-        <v>0.003591701287904586</v>
+        <v>0.0005067526421582865</v>
       </c>
       <c r="B11">
-        <v>2.614480421538031</v>
+        <v>0.209072485981065</v>
       </c>
       <c r="C11">
-        <v>0.1197830049703389</v>
+        <v>0.01296366854910806</v>
       </c>
       <c r="D11">
-        <v>0.1539687918863044</v>
+        <v>0.01690434901753399</v>
       </c>
       <c r="E11">
-        <v>5.225471825765271</v>
+        <v>0.5827242279167366</v>
       </c>
       <c r="F11">
-        <v>0.3663854593087198</v>
+        <v>0.05504801219503668</v>
       </c>
       <c r="G11">
-        <v>0.001181864035482365</v>
+        <v>0.0001737504451438114</v>
       </c>
       <c r="H11">
-        <v>0.0002982222950467357</v>
+        <v>1.504736222338112E-05</v>
       </c>
       <c r="I11">
-        <v>0.119067543663274</v>
+        <v>0.01732091769286579</v>
       </c>
       <c r="J11">
-        <v>2.500645866411324</v>
+        <v>0.3091296921258196</v>
       </c>
       <c r="K11">
-        <v>0.4033543565706837</v>
+        <v>0.06332675906071096</v>
       </c>
       <c r="L11">
-        <v>0.2921150639192605</v>
+        <v>0.04609385931019148</v>
       </c>
       <c r="M11">
-        <v>0.01245215786983267</v>
+        <v>0.00141851713309663</v>
       </c>
       <c r="N11">
-        <v>1.58516437562067E-06</v>
+        <v>2.385586254432329E-07</v>
       </c>
       <c r="O11">
-        <v>0.001234502175136089</v>
+        <v>0.0001724650240501235</v>
       </c>
       <c r="P11">
-        <v>0.002812775354469583</v>
+        <v>0.0004212607018159188</v>
       </c>
       <c r="Q11">
-        <v>0.002881031684494968</v>
+        <v>0.0004307689342778672</v>
       </c>
       <c r="R11">
-        <v>0.02511289821832663</v>
+        <v>0.003780097022302692</v>
       </c>
       <c r="S11">
-        <v>1.199554498629554E-08</v>
+        <v>1.291043592020193E-09</v>
       </c>
       <c r="T11">
-        <v>4.230016046419691E-06</v>
+        <v>4.398193562518047E-07</v>
       </c>
       <c r="U11">
-        <v>0.07202564299563134</v>
+        <v>0.0102781013667779</v>
       </c>
     </row>
     <row r="12" spans="1:21">
       <c r="A12">
-        <v>0.0007291589618496478</v>
+        <v>0.0001192920462369847</v>
       </c>
       <c r="B12">
-        <v>0.4021355177913509</v>
+        <v>0.03489337898780118</v>
       </c>
       <c r="C12">
-        <v>0.04733901032464305</v>
+        <v>0.001836190588240194</v>
       </c>
       <c r="D12">
-        <v>0.0596440140289755</v>
+        <v>0.002402180386284214</v>
       </c>
       <c r="E12">
-        <v>2.397229460136879</v>
+        <v>0.1782434122636238</v>
       </c>
       <c r="F12">
-        <v>0.05664836073255422</v>
+        <v>0.009993763982884811</v>
       </c>
       <c r="G12">
-        <v>0.0001929571944926478</v>
+        <v>1.081382282253239E-05</v>
       </c>
       <c r="H12">
-        <v>1.933851091111311E-05</v>
+        <v>1.174327640979034E-06</v>
       </c>
       <c r="I12">
-        <v>0.02035639153190085</v>
+        <v>0.001592597447857285</v>
       </c>
       <c r="J12">
-        <v>0.6175254847967954</v>
+        <v>0.04410853878947452</v>
       </c>
       <c r="K12">
-        <v>0.06161854524617778</v>
+        <v>0.002933591908108245</v>
       </c>
       <c r="L12">
-        <v>0.04507704151081417</v>
+        <v>0.02273872297964438</v>
       </c>
       <c r="M12">
-        <v>0.002520186798035042</v>
+        <v>0.0002055853087332948</v>
       </c>
       <c r="N12">
-        <v>2.380915911058635E-07</v>
+        <v>3.356011571420659E-08</v>
       </c>
       <c r="O12">
-        <v>0.0002512291089345376</v>
+        <v>5.088118840189997E-05</v>
       </c>
       <c r="P12">
-        <v>0.0004644310378056788</v>
+        <v>0.0001264467345979474</v>
       </c>
       <c r="Q12">
-        <v>0.0004758870383549195</v>
+        <v>0.0001309211687013063</v>
       </c>
       <c r="R12">
-        <v>0.003918048416985813</v>
+        <v>0.000235783353459505</v>
       </c>
       <c r="S12">
-        <v>1.937452421499646E-09</v>
+        <v>3.523300891186565E-10</v>
       </c>
       <c r="T12">
-        <v>7.491671420801398E-07</v>
+        <v>8.038482491698105E-08</v>
       </c>
       <c r="U12">
-        <v>0.01119654045124362</v>
+        <v>0.003052922023925693</v>
       </c>
     </row>
     <row r="13" spans="1:21">
       <c r="A13">
-        <v>0.0003643781431143178</v>
+        <v>0.0002618355887081149</v>
       </c>
       <c r="B13">
-        <v>0.2221721343387429</v>
+        <v>0.189990955425022</v>
       </c>
       <c r="C13">
-        <v>0.009296349929263568</v>
+        <v>0.004747115511462812</v>
       </c>
       <c r="D13">
-        <v>0.01191902724716309</v>
+        <v>0.008434010314648103</v>
       </c>
       <c r="E13">
-        <v>0.3026441959187796</v>
+        <v>3.664689323163391</v>
       </c>
       <c r="F13">
-        <v>0.05480766183827612</v>
+        <v>0.05987564971353229</v>
       </c>
       <c r="G13">
-        <v>9.047393975944202E-05</v>
+        <v>1.357917628373273E-05</v>
       </c>
       <c r="H13">
-        <v>7.627894524682972E-06</v>
+        <v>5.346281549599972E-06</v>
       </c>
       <c r="I13">
-        <v>0.01444844876067605</v>
+        <v>0.009841478864649256</v>
       </c>
       <c r="J13">
-        <v>0.1858149704695742</v>
+        <v>0.1495463954523657</v>
       </c>
       <c r="K13">
-        <v>0.05022010153935921</v>
+        <v>0.003088733223143107</v>
       </c>
       <c r="L13">
-        <v>0.004167897842107833</v>
+        <v>0.007242663733715819</v>
       </c>
       <c r="M13">
-        <v>0.001239874969044098</v>
+        <v>0.002141845061274789</v>
       </c>
       <c r="N13">
-        <v>9.941432094977463E-08</v>
+        <v>8.674538803129499E-08</v>
       </c>
       <c r="O13">
-        <v>0.0001348675360361351</v>
+        <v>0.0001367145941555466</v>
       </c>
       <c r="P13">
-        <v>0.0003024141101120143</v>
+        <v>0.0003025580829410189</v>
       </c>
       <c r="Q13">
-        <v>0.0003108612922166718</v>
+        <v>0.0003422863798662653</v>
       </c>
       <c r="R13">
-        <v>0.001196462698813115</v>
+        <v>0.0003092917588136948</v>
       </c>
       <c r="S13">
-        <v>8.482716722345438E-10</v>
+        <v>7.511049308646907E-10</v>
       </c>
       <c r="T13">
-        <v>3.846420951253111E-07</v>
+        <v>3.300481302776536E-07</v>
       </c>
       <c r="U13">
-        <v>0.00949308051376146</v>
+        <v>0.02586315187521875</v>
       </c>
     </row>
     <row r="14" spans="1:21">
       <c r="A14">
-        <v>0.0001192920177678825</v>
+        <v>-0.0002575230838146673</v>
       </c>
       <c r="B14">
-        <v>0.1283537065453591</v>
+        <v>-2.186739698334095</v>
       </c>
       <c r="C14">
-        <v>0.001836190287532394</v>
+        <v>-0.1785199053817527</v>
       </c>
       <c r="D14">
-        <v>0.002402179962846212</v>
+        <v>-0.2449411615206412</v>
       </c>
       <c r="E14">
-        <v>0.1782433651996342</v>
+        <v>-4.85988321784532</v>
       </c>
       <c r="F14">
-        <v>0.009993762067355399</v>
+        <v>-0.009332609614450722</v>
       </c>
       <c r="G14">
-        <v>1.081382078059708E-05</v>
+        <v>-3.907777656202472E-05</v>
       </c>
       <c r="H14">
-        <v>1.174327399157071E-06</v>
+        <v>-1.08297476448911E-05</v>
       </c>
       <c r="I14">
-        <v>0.001592594596464362</v>
+        <v>-0.0298416800285917</v>
       </c>
       <c r="J14">
-        <v>0.04410853270535383</v>
+        <v>-2.687339110093048</v>
       </c>
       <c r="K14">
-        <v>0.002933591768869177</v>
+        <v>-0.002309375776159938</v>
       </c>
       <c r="L14">
-        <v>0.02273872282958461</v>
+        <v>-0.0009311272981527444</v>
       </c>
       <c r="M14">
-        <v>0.0002055850076267969</v>
+        <v>-0.002514025759588145</v>
       </c>
       <c r="N14">
-        <v>3.356011267644355E-08</v>
+        <v>-3.356018801627623E-07</v>
       </c>
       <c r="O14">
-        <v>5.088117055316357E-05</v>
+        <v>-0.0001010168066458167</v>
       </c>
       <c r="P14">
-        <v>0.0001264467000474595</v>
+        <v>-0.0004825902166316522</v>
       </c>
       <c r="Q14">
-        <v>0.0001309211332691816</v>
+        <v>-0.0004876609070323814</v>
       </c>
       <c r="R14">
-        <v>0.0002357833192909125</v>
+        <v>-0.001777690192642881</v>
       </c>
       <c r="S14">
-        <v>6.140261319099535E-10</v>
+        <v>-6.479944287951979E-09</v>
       </c>
       <c r="T14">
-        <v>1.671162007131953E-07</v>
+        <v>-2.809506000217761E-06</v>
       </c>
       <c r="U14">
-        <v>0.003052921434167862</v>
+        <v>-0.003269167207096091</v>
       </c>
     </row>
     <row r="15" spans="1:21">
       <c r="A15">
-        <v>0.002084396935709978</v>
+        <v>0.0002618355887081149</v>
       </c>
       <c r="B15">
-        <v>1.725035698696418</v>
+        <v>0.189990955425022</v>
       </c>
       <c r="C15">
-        <v>0.2669743379801093</v>
+        <v>0.004747115511462812</v>
       </c>
       <c r="D15">
-        <v>0.349950379429725</v>
+        <v>0.008434010314648103</v>
       </c>
       <c r="E15">
-        <v>2.326139607210105</v>
+        <v>3.664689323163391</v>
       </c>
       <c r="F15">
-        <v>0.2127289777382033</v>
+        <v>0.05987564971353229</v>
       </c>
       <c r="G15">
-        <v>0.0003899489439608987</v>
+        <v>1.357917628373273E-05</v>
       </c>
       <c r="H15">
-        <v>0.0006333706806890317</v>
+        <v>5.346281549599972E-06</v>
       </c>
       <c r="I15">
-        <v>0.09194253833440388</v>
+        <v>0.009841478864649256</v>
       </c>
       <c r="J15">
-        <v>5.525421282023793</v>
+        <v>0.1495463954523657</v>
       </c>
       <c r="K15">
-        <v>0.07527381855021781</v>
+        <v>0.003088733223143107</v>
       </c>
       <c r="L15">
-        <v>0.03878354427885474</v>
+        <v>0.007242663733715819</v>
       </c>
       <c r="M15">
-        <v>0.01203973054913811</v>
+        <v>0.002141845061274789</v>
       </c>
       <c r="N15">
-        <v>5.320936382251776E-07</v>
+        <v>8.674538803129499E-08</v>
       </c>
       <c r="O15">
-        <v>0.0008176929270350651</v>
+        <v>0.0001367145941555466</v>
       </c>
       <c r="P15">
-        <v>0.001404347462662252</v>
+        <v>0.0003025580829410189</v>
       </c>
       <c r="Q15">
-        <v>0.001479618375621723</v>
+        <v>0.0003422863798662653</v>
       </c>
       <c r="R15">
-        <v>0.01464253992081874</v>
+        <v>0.0003092917588136948</v>
       </c>
       <c r="S15">
-        <v>6.317784023379898E-09</v>
+        <v>7.511049308646907E-10</v>
       </c>
       <c r="T15">
-        <v>3.715396607027839E-06</v>
+        <v>3.300481302776536E-07</v>
       </c>
       <c r="U15">
-        <v>0.07115265500034137</v>
+        <v>0.02586315187521875</v>
       </c>
     </row>
     <row r="16" spans="1:21">
       <c r="A16">
-        <v>0.0002618355567615521</v>
+        <v>-0.0005079593125507636</v>
       </c>
       <c r="B16">
-        <v>0.1915191042039398</v>
+        <v>-2.728555922052601</v>
       </c>
       <c r="C16">
-        <v>0.004747115136364984</v>
+        <v>-0.1274645076471547</v>
       </c>
       <c r="D16">
-        <v>0.00843400978865444</v>
+        <v>-0.1835730952420545</v>
       </c>
       <c r="E16">
-        <v>3.664689268931306</v>
+        <v>-7.011518582746011</v>
       </c>
       <c r="F16">
-        <v>0.05987564749139332</v>
+        <v>-0.02559323792236414</v>
       </c>
       <c r="G16">
-        <v>1.357917383745325E-05</v>
+        <v>-0.0001769316949979747</v>
       </c>
       <c r="H16">
-        <v>5.346281249710098E-06</v>
+        <v>-1.449631858346901E-05</v>
       </c>
       <c r="I16">
-        <v>0.009841475491241399</v>
+        <v>-0.07664800134515136</v>
       </c>
       <c r="J16">
-        <v>0.1495463875335385</v>
+        <v>-1.659520754139714</v>
       </c>
       <c r="K16">
-        <v>0.003088732933838866</v>
+        <v>-0.008901489308224483</v>
       </c>
       <c r="L16">
-        <v>0.007242663488738816</v>
+        <v>-0.002617898607288902</v>
       </c>
       <c r="M16">
-        <v>0.002141844699190058</v>
+        <v>-0.009324449290244487</v>
       </c>
       <c r="N16">
-        <v>8.67453845227963E-08</v>
+        <v>-3.146475188087138E-07</v>
       </c>
       <c r="O16">
-        <v>0.0001367145742073595</v>
+        <v>-0.0002367086983210905</v>
       </c>
       <c r="P16">
-        <v>0.0003025580441588262</v>
+        <v>-0.0006806085713250467</v>
       </c>
       <c r="Q16">
-        <v>0.0003422863399066772</v>
+        <v>-0.0006892720356167122</v>
       </c>
       <c r="R16">
-        <v>0.0003092917158547705</v>
+        <v>-0.003237540336934441</v>
       </c>
       <c r="S16">
-        <v>7.553838475159946E-10</v>
+        <v>-8.166342759706013E-09</v>
       </c>
       <c r="T16">
-        <v>3.314663400626326E-07</v>
+        <v>-3.321933979875786E-06</v>
       </c>
       <c r="U16">
-        <v>0.02586315117117187</v>
+        <v>-0.008538502100533614</v>
       </c>
     </row>
     <row r="17" spans="1:21">
       <c r="A17">
-        <v>-0.0002575230613883605</v>
+        <v>2.864625089712758E-05</v>
       </c>
       <c r="B17">
-        <v>-2.392110917055927</v>
+        <v>0.003759312234762778</v>
       </c>
       <c r="C17">
-        <v>-0.1785199050688869</v>
+        <v>0.001987619147899888</v>
       </c>
       <c r="D17">
-        <v>-0.2449411610892739</v>
+        <v>0.002554561689212718</v>
       </c>
       <c r="E17">
-        <v>-4.859883177146885</v>
+        <v>0.1695761403244584</v>
       </c>
       <c r="F17">
-        <v>-0.009332608029179124</v>
+        <v>0.0009397847328346153</v>
       </c>
       <c r="G17">
-        <v>-3.907777481641205E-05</v>
+        <v>3.370919160242777E-06</v>
       </c>
       <c r="H17">
-        <v>-1.082974743336056E-05</v>
+        <v>4.082117303817571E-07</v>
       </c>
       <c r="I17">
-        <v>-0.02984167775682324</v>
+        <v>0.001381290738478046</v>
       </c>
       <c r="J17">
-        <v>-2.687339103891876</v>
+        <v>0.02960115026057783</v>
       </c>
       <c r="K17">
-        <v>-0.002309375572268529</v>
+        <v>0.0003015982534627736</v>
       </c>
       <c r="L17">
-        <v>-0.0009311270516161476</v>
+        <v>0.0001433028754696351</v>
       </c>
       <c r="M17">
-        <v>-0.002514025514280159</v>
+        <v>0.0002143244778781134</v>
       </c>
       <c r="N17">
-        <v>-3.356018777992086E-07</v>
+        <v>1.291932590012166E-09</v>
       </c>
       <c r="O17">
-        <v>-0.0001010167930532787</v>
+        <v>1.160488159504931E-05</v>
       </c>
       <c r="P17">
-        <v>-0.0004825901903954001</v>
+        <v>1.04316918774579E-05</v>
       </c>
       <c r="Q17">
-        <v>-0.0004876608798080443</v>
+        <v>1.093469913622527E-05</v>
       </c>
       <c r="R17">
-        <v>-0.001777690162669269</v>
+        <v>3.071788484429795E-05</v>
       </c>
       <c r="S17">
-        <v>-7.054999376948888E-09</v>
+        <v>2.5122528073498E-11</v>
       </c>
       <c r="T17">
-        <v>-3.000090614529515E-06</v>
+        <v>2.219409709373561E-08</v>
       </c>
       <c r="U17">
-        <v>-0.003269166696487442</v>
+        <v>0.0002888119797737495</v>
       </c>
     </row>
     <row r="18" spans="1:21">
       <c r="A18">
-        <v>0.0002618355532267439</v>
+        <v>0.0008408427790368805</v>
       </c>
       <c r="B18">
-        <v>0.1915191014266098</v>
+        <v>0.01368207729339304</v>
       </c>
       <c r="C18">
-        <v>0.0047471150692761</v>
+        <v>0.005546869362455202</v>
       </c>
       <c r="D18">
-        <v>0.008434009668120006</v>
+        <v>0.007733463243830838</v>
       </c>
       <c r="E18">
-        <v>3.664689214565249</v>
+        <v>1.738455000319307</v>
       </c>
       <c r="F18">
-        <v>0.05987564661509004</v>
+        <v>0.003682781657079824</v>
       </c>
       <c r="G18">
-        <v>1.357917365379344E-05</v>
+        <v>9.910057453015261E-06</v>
       </c>
       <c r="H18">
-        <v>5.346281175822409E-06</v>
+        <v>1.873306113462509E-06</v>
       </c>
       <c r="I18">
-        <v>0.009841475374760768</v>
+        <v>0.009664757404819625</v>
       </c>
       <c r="J18">
-        <v>0.1495463853974575</v>
+        <v>0.09978981784301753</v>
       </c>
       <c r="K18">
-        <v>0.003088732889720001</v>
+        <v>0.001680641190585553</v>
       </c>
       <c r="L18">
-        <v>0.007242663241624061</v>
+        <v>0.0004378712517531406</v>
       </c>
       <c r="M18">
-        <v>0.002141844672572893</v>
+        <v>0.00323654344009041</v>
       </c>
       <c r="N18">
-        <v>8.674538324538658E-08</v>
+        <v>8.593858632269992E-09</v>
       </c>
       <c r="O18">
-        <v>0.0001367145723040059</v>
+        <v>0.000266204609356964</v>
       </c>
       <c r="P18">
-        <v>0.0003025580398771748</v>
+        <v>5.367529534569801E-05</v>
       </c>
       <c r="Q18">
-        <v>0.0003422863350447099</v>
+        <v>5.567948264373903E-05</v>
       </c>
       <c r="R18">
-        <v>0.0003092917117402098</v>
+        <v>0.0009870058512703483</v>
       </c>
       <c r="S18">
-        <v>7.553838353655328E-10</v>
+        <v>2.587945404213964E-10</v>
       </c>
       <c r="T18">
-        <v>3.314663354011044E-07</v>
+        <v>2.369067824771231E-07</v>
       </c>
       <c r="U18">
-        <v>0.02586315079146382</v>
+        <v>0.001699746453649668</v>
       </c>
     </row>
     <row r="19" spans="1:21">
       <c r="A19">
-        <v>-0.0002589364419461887</v>
+        <v>-0.001960374415678578</v>
       </c>
       <c r="B19">
-        <v>-2.484473449004196</v>
+        <v>-0.4456412539321427</v>
       </c>
       <c r="C19">
-        <v>-0.1709708725638958</v>
+        <v>-0.04537185053990433</v>
       </c>
       <c r="D19">
-        <v>-0.2362312463710488</v>
+        <v>-0.0601581134057765</v>
       </c>
       <c r="E19">
-        <v>-5.310119485295193</v>
+        <v>-1.512132842667291</v>
       </c>
       <c r="F19">
-        <v>-0.009334504861564417</v>
+        <v>-0.1105927756225781</v>
       </c>
       <c r="G19">
-        <v>-3.775177518676853E-05</v>
+        <v>-0.0003596277123257</v>
       </c>
       <c r="H19">
-        <v>-1.046727310133092E-05</v>
+        <v>-0.002855970031210743</v>
       </c>
       <c r="I19">
-        <v>-0.02909997773260669</v>
+        <v>-0.02563760357083325</v>
       </c>
       <c r="J19">
-        <v>-2.485019893311708</v>
+        <v>-1.171873849575517</v>
       </c>
       <c r="K19">
-        <v>-0.002284776083737794</v>
+        <v>-0.04337628205485916</v>
       </c>
       <c r="L19">
-        <v>-0.0008979124821742314</v>
+        <v>-0.01734706580431098</v>
       </c>
       <c r="M19">
-        <v>-0.002497789240064456</v>
+        <v>-0.004300254353090545</v>
       </c>
       <c r="N19">
-        <v>-3.192311590268863E-07</v>
+        <v>-5.116584827853267E-07</v>
       </c>
       <c r="O19">
-        <v>-0.0001010944770410314</v>
+        <v>-0.001009446301210627</v>
       </c>
       <c r="P19">
-        <v>-0.0004904861208598287</v>
+        <v>-0.001151208250361367</v>
       </c>
       <c r="Q19">
-        <v>-0.0004955092664407462</v>
+        <v>-0.001187086632866393</v>
       </c>
       <c r="R19">
-        <v>-0.001769244641180659</v>
+        <v>-0.003746189583614387</v>
       </c>
       <c r="S19">
-        <v>-7.31276678652597E-09</v>
+        <v>-2.271548310149988E-09</v>
       </c>
       <c r="T19">
-        <v>-3.037206644915667E-06</v>
+        <v>-1.410276694894968E-06</v>
       </c>
       <c r="U19">
-        <v>-0.003264925303106418</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21">
-      <c r="A20">
-        <v>0.0002618355567615521</v>
-      </c>
-      <c r="B20">
-        <v>0.1915191042039398</v>
-      </c>
-      <c r="C20">
-        <v>0.004747115136364984</v>
-      </c>
-      <c r="D20">
-        <v>0.00843400978865444</v>
-      </c>
-      <c r="E20">
-        <v>3.664689268931306</v>
-      </c>
-      <c r="F20">
-        <v>0.05987564749139332</v>
-      </c>
-      <c r="G20">
-        <v>1.357917383745325E-05</v>
-      </c>
-      <c r="H20">
-        <v>5.346281249710098E-06</v>
-      </c>
-      <c r="I20">
-        <v>0.009841475491241399</v>
-      </c>
-      <c r="J20">
-        <v>0.1495463875335385</v>
-      </c>
-      <c r="K20">
-        <v>0.003088732933838866</v>
-      </c>
-      <c r="L20">
-        <v>0.007242663488738816</v>
-      </c>
-      <c r="M20">
-        <v>0.002141844699190058</v>
-      </c>
-      <c r="N20">
-        <v>8.67453845227963E-08</v>
-      </c>
-      <c r="O20">
-        <v>0.0001367145742073595</v>
-      </c>
-      <c r="P20">
-        <v>0.0003025580441588262</v>
-      </c>
-      <c r="Q20">
-        <v>0.0003422863399066772</v>
-      </c>
-      <c r="R20">
-        <v>0.0003092917158547705</v>
-      </c>
-      <c r="S20">
-        <v>7.553838475159946E-10</v>
-      </c>
-      <c r="T20">
-        <v>3.314663400626326E-07</v>
-      </c>
-      <c r="U20">
-        <v>0.02586315117117187</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21">
-      <c r="A21">
-        <v>-0.000507959037034307</v>
-      </c>
-      <c r="B21">
-        <v>-2.732518193141729</v>
-      </c>
-      <c r="C21">
-        <v>-0.1274645045598059</v>
-      </c>
-      <c r="D21">
-        <v>-0.1835730908951942</v>
-      </c>
-      <c r="E21">
-        <v>-7.011518126239848</v>
-      </c>
-      <c r="F21">
-        <v>-0.02559321864935585</v>
-      </c>
-      <c r="G21">
-        <v>-0.0001769316740680828</v>
-      </c>
-      <c r="H21">
-        <v>-1.449631599886038E-05</v>
-      </c>
-      <c r="I21">
-        <v>-0.0766479725378099</v>
-      </c>
-      <c r="J21">
-        <v>-1.659520687918925</v>
-      </c>
-      <c r="K21">
-        <v>-0.008901486798228298</v>
-      </c>
-      <c r="L21">
-        <v>-0.002617896115786188</v>
-      </c>
-      <c r="M21">
-        <v>-0.009324446206381135</v>
-      </c>
-      <c r="N21">
-        <v>-3.146474884886601E-07</v>
-      </c>
-      <c r="O21">
-        <v>-0.0002367085258821796</v>
-      </c>
-      <c r="P21">
-        <v>-0.0006806082349397713</v>
-      </c>
-      <c r="Q21">
-        <v>-0.0006892716888428457</v>
-      </c>
-      <c r="R21">
-        <v>-0.003237539967383176</v>
-      </c>
-      <c r="S21">
-        <v>-8.17743727435969E-09</v>
-      </c>
-      <c r="T21">
-        <v>-3.325611190015169E-06</v>
-      </c>
-      <c r="U21">
-        <v>-0.00853849598529963</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21">
-      <c r="A22">
-        <v>2.864624402830913E-05</v>
-      </c>
-      <c r="B22">
-        <v>0.004107489363363929</v>
-      </c>
-      <c r="C22">
-        <v>0.001987619065972134</v>
-      </c>
-      <c r="D22">
-        <v>0.002554561574475857</v>
-      </c>
-      <c r="E22">
-        <v>0.1695761285090606</v>
-      </c>
-      <c r="F22">
-        <v>0.0009397842553085969</v>
-      </c>
-      <c r="G22">
-        <v>3.370918632118397E-06</v>
-      </c>
-      <c r="H22">
-        <v>4.08211666406598E-07</v>
-      </c>
-      <c r="I22">
-        <v>0.001381290014104074</v>
-      </c>
-      <c r="J22">
-        <v>0.02960114854147078</v>
-      </c>
-      <c r="K22">
-        <v>0.000301598191164297</v>
-      </c>
-      <c r="L22">
-        <v>0.0001433028186460568</v>
-      </c>
-      <c r="M22">
-        <v>0.0002143244002312219</v>
-      </c>
-      <c r="N22">
-        <v>1.291931835243747E-09</v>
-      </c>
-      <c r="O22">
-        <v>1.160487730290169E-05</v>
-      </c>
-      <c r="P22">
-        <v>1.043168354168281E-05</v>
-      </c>
-      <c r="Q22">
-        <v>1.093469054767085E-05</v>
-      </c>
-      <c r="R22">
-        <v>3.071787561422413E-05</v>
-      </c>
-      <c r="S22">
-        <v>2.609744702468704E-11</v>
-      </c>
-      <c r="T22">
-        <v>2.251743611892212E-08</v>
-      </c>
-      <c r="U22">
-        <v>0.0002888118285970352</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21">
-      <c r="A23">
-        <v>0.0008408427683130576</v>
-      </c>
-      <c r="B23">
-        <v>0.01409093379981137</v>
-      </c>
-      <c r="C23">
-        <v>0.005546869234190737</v>
-      </c>
-      <c r="D23">
-        <v>0.007733463064149966</v>
-      </c>
-      <c r="E23">
-        <v>1.738454981735158</v>
-      </c>
-      <c r="F23">
-        <v>0.00368278091818217</v>
-      </c>
-      <c r="G23">
-        <v>9.910056629805164E-06</v>
-      </c>
-      <c r="H23">
-        <v>1.873306013396999E-06</v>
-      </c>
-      <c r="I23">
-        <v>0.009664756277188827</v>
-      </c>
-      <c r="J23">
-        <v>0.09978981512830512</v>
-      </c>
-      <c r="K23">
-        <v>0.001680641094072538</v>
-      </c>
-      <c r="L23">
-        <v>0.0004378711241432917</v>
-      </c>
-      <c r="M23">
-        <v>0.003236543319221325</v>
-      </c>
-      <c r="N23">
-        <v>8.59385745680358E-09</v>
-      </c>
-      <c r="O23">
-        <v>0.0002662046026698715</v>
-      </c>
-      <c r="P23">
-        <v>5.367528238464521E-05</v>
-      </c>
-      <c r="Q23">
-        <v>5.567946930249242E-05</v>
-      </c>
-      <c r="R23">
-        <v>0.0009870058369205444</v>
-      </c>
-      <c r="S23">
-        <v>2.599393638783163E-10</v>
-      </c>
-      <c r="T23">
-        <v>2.372862535186422E-07</v>
-      </c>
-      <c r="U23">
-        <v>0.00169974622022297</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21">
-      <c r="A24">
-        <v>-0.001960372342957913</v>
-      </c>
-      <c r="B24">
-        <v>-1.159673084962837</v>
-      </c>
-      <c r="C24">
-        <v>-0.04537182770801647</v>
-      </c>
-      <c r="D24">
-        <v>-0.06015808110811099</v>
-      </c>
-      <c r="E24">
-        <v>-1.512129414089107</v>
-      </c>
-      <c r="F24">
-        <v>-0.110592633387694</v>
-      </c>
-      <c r="G24">
-        <v>-0.000359627552719447</v>
-      </c>
-      <c r="H24">
-        <v>-0.002855970011664068</v>
-      </c>
-      <c r="I24">
-        <v>-0.02563737972369487</v>
-      </c>
-      <c r="J24">
-        <v>-1.171873347886743</v>
-      </c>
-      <c r="K24">
-        <v>-0.04337626180455813</v>
-      </c>
-      <c r="L24">
-        <v>-0.01734705251319037</v>
-      </c>
-      <c r="M24">
-        <v>-0.004300230413793837</v>
-      </c>
-      <c r="N24">
-        <v>-5.116582500636089E-07</v>
-      </c>
-      <c r="O24">
-        <v>-0.001009444994014417</v>
-      </c>
-      <c r="P24">
-        <v>-0.001151205703648336</v>
-      </c>
-      <c r="Q24">
-        <v>-0.001187084017987113</v>
-      </c>
-      <c r="R24">
-        <v>-0.003746186746939355</v>
-      </c>
-      <c r="S24">
-        <v>-4.270890991947131E-09</v>
-      </c>
-      <c r="T24">
-        <v>-2.073714893426163E-06</v>
-      </c>
-      <c r="U24">
-        <v>-0.0249960706493965</v>
+        <v>-0.02499611530326472</v>
       </c>
     </row>
   </sheetData>
